--- a/data/trans_orig/P14B35_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B35_2012-Provincia-trans_orig.xlsx
@@ -909,12 +909,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>55,18%</t>
+          <t>54,99%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -930,12 +930,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>55,18%</t>
+          <t>54,99%</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>44,82%</t>
+          <t>45,01%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>77,44%</t>
+          <t>77,25%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -999,12 +999,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>44,82%</t>
+          <t>45,01%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>77,44%</t>
+          <t>77,25%</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>48,64%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>48,64%</t>
+          <t>39,71%</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,36%</t>
+          <t>60,29%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>51,36%</t>
+          <t>60,29%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>62,09%</t>
+          <t>62,88%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>62,09%</t>
+          <t>62,88%</t>
         </is>
       </c>
     </row>
@@ -1400,12 +1400,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>37,12%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>85,79%</t>
+          <t>83,54%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1421,12 +1421,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>37,12%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>85,79%</t>
+          <t>83,54%</t>
         </is>
       </c>
     </row>
@@ -1542,12 +1542,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>35,62%</t>
+          <t>34,93%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>82,95%</t>
+          <t>82,75%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>35,62%</t>
+          <t>34,93%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>82,95%</t>
+          <t>82,75%</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>64,38%</t>
+          <t>65,07%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1632,12 +1632,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>64,38%</t>
+          <t>65,07%</t>
         </is>
       </c>
     </row>
@@ -1753,12 +1753,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>38,23%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>38,23%</t>
         </is>
       </c>
     </row>
@@ -1822,12 +1822,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>65,12%</t>
+          <t>61,77%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,01%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1843,12 +1843,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>65,12%</t>
+          <t>61,77%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,01%</t>
         </is>
       </c>
     </row>
@@ -1964,12 +1964,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>44,21%</t>
+          <t>42,05%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>44,21%</t>
+          <t>42,05%</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2033,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>55,79%</t>
+          <t>57,95%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>92,39%</t>
+          <t>95,07%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2054,12 +2054,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>55,79%</t>
+          <t>57,95%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>92,39%</t>
+          <t>95,07%</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>68,59%</t>
+          <t>68,63%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2196,12 +2196,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>68,59%</t>
+          <t>68,63%</t>
         </is>
       </c>
     </row>
@@ -2244,12 +2244,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>31,41%</t>
+          <t>31,37%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>84,9%</t>
+          <t>84,83%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>31,41%</t>
+          <t>31,37%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>84,9%</t>
+          <t>84,83%</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2407,12 +2407,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>39,92%</t>
         </is>
       </c>
     </row>
@@ -2455,12 +2455,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>59,28%</t>
+          <t>60,08%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>75,75%</t>
+          <t>75,98%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>59,28%</t>
+          <t>60,08%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>75,75%</t>
+          <t>75,98%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P14B35_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B35_2012-Provincia-trans_orig.xlsx
@@ -909,12 +909,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>54,99%</t>
+          <t>58,22%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -930,12 +930,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>54,99%</t>
+          <t>58,22%</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>41,78%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>77,25%</t>
+          <t>77,52%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -999,12 +999,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>41,78%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>77,25%</t>
+          <t>77,52%</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>39,75%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>39,75%</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,29%</t>
+          <t>60,25%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>60,29%</t>
+          <t>60,25%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>62,88%</t>
+          <t>60,75%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>62,88%</t>
+          <t>60,75%</t>
         </is>
       </c>
     </row>
@@ -1400,12 +1400,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>37,12%</t>
+          <t>39,25%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>83,54%</t>
+          <t>85,32%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1421,12 +1421,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>37,12%</t>
+          <t>39,25%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>83,54%</t>
+          <t>85,32%</t>
         </is>
       </c>
     </row>
@@ -1542,12 +1542,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>82,75%</t>
+          <t>82,91%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>82,75%</t>
+          <t>82,91%</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>65,07%</t>
+          <t>65,23%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1632,12 +1632,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>65,07%</t>
+          <t>65,23%</t>
         </is>
       </c>
     </row>
@@ -1753,12 +1753,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>38,23%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>38,23%</t>
+          <t>37,5%</t>
         </is>
       </c>
     </row>
@@ -1822,12 +1822,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>61,77%</t>
+          <t>62,5%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>95,01%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1843,12 +1843,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>61,77%</t>
+          <t>62,5%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>95,01%</t>
+          <t>95,39%</t>
         </is>
       </c>
     </row>
@@ -1964,12 +1964,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>42,05%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>42,05%</t>
+          <t>40,63%</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2033,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>57,95%</t>
+          <t>59,37%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>95,07%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2054,12 +2054,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>57,95%</t>
+          <t>59,37%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>95,07%</t>
+          <t>92,79%</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>68,63%</t>
+          <t>69,3%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2196,12 +2196,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>68,63%</t>
+          <t>69,3%</t>
         </is>
       </c>
     </row>
@@ -2244,12 +2244,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>30,7%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>84,83%</t>
+          <t>84,61%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>30,7%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>84,83%</t>
+          <t>84,61%</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2407,12 +2407,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>40,69%</t>
         </is>
       </c>
     </row>
@@ -2455,12 +2455,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>59,31%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>75,98%</t>
+          <t>75,11%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>59,31%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>75,98%</t>
+          <t>75,11%</t>
         </is>
       </c>
     </row>
